--- a/Data/Pertussis incidence.xlsx
+++ b/Data/Pertussis incidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_lkg1116_onmicrosoft_com/Documents/XMU/likangguo/2024/06 pertussis/WC_global/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7B6E7246A8E1A9EB1F1A0751EC43FB2284637585" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C841A26F-4E61-4FB4-8140-271FB8E8D784}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_7B6E7246A8E1A9EB1F1A0751EC43FB2284637585" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA20AD3-1524-4547-9325-D3FF23CE5124}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Meta data" sheetId="3" r:id="rId3"/>
     <sheet name="Links" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$223</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="1191">
   <si>
     <t>Country / Region</t>
   </si>
@@ -3597,6 +3600,10 @@
   </si>
   <si>
     <t>https://www.who.int/publications/m/item/vaccine-preventable-diseases-surveillance-standards-pertussis</t>
+  </si>
+  <si>
+    <t>per 1,000,000 total population</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3647,11 +3654,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3957,10 +3967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3970,90 +3981,90 @@
     <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>2023</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>2022</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>2021</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>2020</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>2019</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>2018</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>2017</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>2016</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>2015</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>2013</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>2012</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>2011</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>2010</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>2009</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>2008</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>2007</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>2006</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="3">
         <v>2005</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="3">
         <v>2004</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="3">
         <v>2003</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="3">
         <v>2002</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="3">
         <v>2001</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -4201,7 +4212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4272,7 +4283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4378,7 +4389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -4576,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -4659,7 +4670,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -4771,7 +4782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -4928,7 +4939,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -5011,7 +5022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -5094,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -5171,7 +5182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -5254,7 +5265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -5337,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -5420,7 +5431,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -5580,7 +5591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -5639,7 +5650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -5677,7 +5688,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -5754,7 +5765,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>229</v>
       </c>
@@ -5837,7 +5848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -5905,7 +5916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -5976,7 +5987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -6059,7 +6070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>257</v>
       </c>
@@ -6097,7 +6108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>258</v>
       </c>
@@ -6168,7 +6179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>264</v>
       </c>
@@ -6251,7 +6262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>281</v>
       </c>
@@ -6334,7 +6345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -6375,7 +6386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -6443,7 +6454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>291</v>
       </c>
@@ -6523,7 +6534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>301</v>
       </c>
@@ -6617,7 +6628,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>324</v>
       </c>
@@ -6658,7 +6669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>325</v>
       </c>
@@ -6735,7 +6746,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -6746,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>343</v>
       </c>
@@ -6826,7 +6837,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>363</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>1190</v>
       </c>
       <c r="E43" t="s">
         <v>364</v>
@@ -6903,7 +6914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -6974,7 +6985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>371</v>
       </c>
@@ -7048,7 +7059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>373</v>
       </c>
@@ -7131,7 +7142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -7187,7 +7198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>378</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -7314,7 +7325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>382</v>
       </c>
@@ -7397,7 +7408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>393</v>
       </c>
@@ -7477,7 +7488,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>408</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>409</v>
       </c>
@@ -7574,7 +7585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>410</v>
       </c>
@@ -7654,7 +7665,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>415</v>
       </c>
@@ -7737,7 +7748,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>432</v>
       </c>
@@ -7775,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>433</v>
       </c>
@@ -7846,7 +7857,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>440</v>
       </c>
@@ -7923,7 +7934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>456</v>
       </c>
@@ -8006,7 +8017,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>474</v>
       </c>
@@ -8053,7 +8064,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>478</v>
       </c>
@@ -8136,7 +8147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>479</v>
       </c>
@@ -8219,7 +8230,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>480</v>
       </c>
@@ -8299,7 +8310,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>486</v>
       </c>
@@ -8382,7 +8393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>487</v>
       </c>
@@ -8465,7 +8476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>488</v>
       </c>
@@ -8500,7 +8511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>489</v>
       </c>
@@ -8577,7 +8588,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>498</v>
       </c>
@@ -8660,7 +8671,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>520</v>
       </c>
@@ -8740,7 +8751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>521</v>
       </c>
@@ -8760,7 +8771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>522</v>
       </c>
@@ -8807,7 +8818,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>523</v>
       </c>
@@ -8881,7 +8892,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>541</v>
       </c>
@@ -8919,7 +8930,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>542</v>
       </c>
@@ -8960,7 +8971,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>546</v>
       </c>
@@ -8977,7 +8988,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>548</v>
       </c>
@@ -9054,7 +9065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>549</v>
       </c>
@@ -9137,7 +9148,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>561</v>
       </c>
@@ -9169,7 +9180,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>569</v>
       </c>
@@ -9237,7 +9248,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>571</v>
       </c>
@@ -9314,7 +9325,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>572</v>
       </c>
@@ -9394,7 +9405,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>573</v>
       </c>
@@ -9456,7 +9467,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>578</v>
       </c>
@@ -9539,7 +9550,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>579</v>
       </c>
@@ -9598,7 +9609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>581</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>582</v>
       </c>
@@ -9752,7 +9763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>584</v>
       </c>
@@ -9829,7 +9840,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -9912,7 +9923,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>594</v>
       </c>
@@ -9995,7 +10006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>595</v>
       </c>
@@ -10075,7 +10086,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>601</v>
       </c>
@@ -10155,7 +10166,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>610</v>
       </c>
@@ -10220,7 +10231,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>612</v>
       </c>
@@ -10303,7 +10314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>615</v>
       </c>
@@ -10380,7 +10391,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>626</v>
       </c>
@@ -10460,7 +10471,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>637</v>
       </c>
@@ -10537,7 +10548,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>652</v>
       </c>
@@ -10596,7 +10607,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>654</v>
       </c>
@@ -10676,7 +10687,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>655</v>
       </c>
@@ -10747,7 +10758,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>662</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>663</v>
       </c>
@@ -10907,7 +10918,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>664</v>
       </c>
@@ -10939,7 +10950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>665</v>
       </c>
@@ -11004,7 +11015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>666</v>
       </c>
@@ -11018,7 +11029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>667</v>
       </c>
@@ -11065,7 +11076,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>670</v>
       </c>
@@ -11142,7 +11153,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>679</v>
       </c>
@@ -11216,7 +11227,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>686</v>
       </c>
@@ -11299,7 +11310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>699</v>
       </c>
@@ -11373,7 +11384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>704</v>
       </c>
@@ -11438,7 +11449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>705</v>
       </c>
@@ -11494,7 +11505,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>711</v>
       </c>
@@ -11544,7 +11555,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>716</v>
       </c>
@@ -11627,7 +11638,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>722</v>
       </c>
@@ -11698,7 +11709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>726</v>
       </c>
@@ -11772,7 +11783,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>732</v>
       </c>
@@ -11840,7 +11851,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>733</v>
       </c>
@@ -11920,7 +11931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>735</v>
       </c>
@@ -11988,7 +11999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>736</v>
       </c>
@@ -12041,7 +12052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>737</v>
       </c>
@@ -12118,7 +12129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>740</v>
       </c>
@@ -12168,7 +12179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>741</v>
       </c>
@@ -12212,7 +12223,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>742</v>
       </c>
@@ -12271,7 +12282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>743</v>
       </c>
@@ -12354,7 +12365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>744</v>
       </c>
@@ -12410,7 +12421,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>747</v>
       </c>
@@ -12433,7 +12444,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>750</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>751</v>
       </c>
@@ -12560,7 +12571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>755</v>
       </c>
@@ -12595,7 +12606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>756</v>
       </c>
@@ -12648,7 +12659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>757</v>
       </c>
@@ -12692,7 +12703,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>758</v>
       </c>
@@ -12766,7 +12777,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>759</v>
       </c>
@@ -12846,7 +12857,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>760</v>
       </c>
@@ -12896,7 +12907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>761</v>
       </c>
@@ -12976,7 +12987,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>781</v>
       </c>
@@ -13050,7 +13061,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>800</v>
       </c>
@@ -13115,7 +13126,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>805</v>
       </c>
@@ -13192,7 +13203,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>825</v>
       </c>
@@ -13275,7 +13286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>827</v>
       </c>
@@ -13358,7 +13369,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>840</v>
       </c>
@@ -13417,7 +13428,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>851</v>
       </c>
@@ -13476,7 +13487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>852</v>
       </c>
@@ -13556,7 +13567,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>853</v>
       </c>
@@ -13600,7 +13611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>854</v>
       </c>
@@ -13680,7 +13691,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>876</v>
       </c>
@@ -13718,7 +13729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>878</v>
       </c>
@@ -13801,7 +13812,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>885</v>
       </c>
@@ -13884,7 +13895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>886</v>
       </c>
@@ -13949,7 +13960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>887</v>
       </c>
@@ -14029,7 +14040,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>889</v>
       </c>
@@ -14106,7 +14117,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>904</v>
       </c>
@@ -14189,7 +14200,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>905</v>
       </c>
@@ -14272,7 +14283,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>908</v>
       </c>
@@ -14349,7 +14360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>909</v>
       </c>
@@ -14414,7 +14425,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>921</v>
       </c>
@@ -14494,7 +14505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>924</v>
       </c>
@@ -14568,7 +14579,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>926</v>
       </c>
@@ -14648,7 +14659,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>927</v>
       </c>
@@ -14731,7 +14742,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>935</v>
       </c>
@@ -14814,7 +14825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>936</v>
       </c>
@@ -14897,7 +14908,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>946</v>
       </c>
@@ -14959,7 +14970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>947</v>
       </c>
@@ -15042,7 +15053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>948</v>
       </c>
@@ -15125,7 +15136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>949</v>
       </c>
@@ -15205,7 +15216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>950</v>
       </c>
@@ -15258,7 +15269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>954</v>
       </c>
@@ -15323,7 +15334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>956</v>
       </c>
@@ -15397,7 +15408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>957</v>
       </c>
@@ -15477,7 +15488,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>958</v>
       </c>
@@ -15536,7 +15547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>959</v>
       </c>
@@ -15613,7 +15624,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>962</v>
       </c>
@@ -15693,7 +15704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>964</v>
       </c>
@@ -15719,7 +15730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>965</v>
       </c>
@@ -15778,7 +15789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>966</v>
       </c>
@@ -15795,7 +15806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>967</v>
       </c>
@@ -15878,7 +15889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>980</v>
       </c>
@@ -15958,7 +15969,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>994</v>
       </c>
@@ -16017,7 +16028,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>999</v>
       </c>
@@ -16055,7 +16066,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1002</v>
       </c>
@@ -16117,7 +16128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1004</v>
       </c>
@@ -16143,7 +16154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1005</v>
       </c>
@@ -16214,7 +16225,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1011</v>
       </c>
@@ -16297,7 +16308,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1012</v>
       </c>
@@ -16365,7 +16376,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1014</v>
       </c>
@@ -16442,7 +16453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1016</v>
       </c>
@@ -16525,7 +16536,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1030</v>
       </c>
@@ -16566,7 +16577,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1041</v>
       </c>
@@ -16643,7 +16654,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1043</v>
       </c>
@@ -16723,7 +16734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1045</v>
       </c>
@@ -16800,7 +16811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1046</v>
       </c>
@@ -16877,7 +16888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1048</v>
       </c>
@@ -16945,7 +16956,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1050</v>
       </c>
@@ -16986,7 +16997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1051</v>
       </c>
@@ -17051,7 +17062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1053</v>
       </c>
@@ -17134,7 +17145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1054</v>
       </c>
@@ -17214,7 +17225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1055</v>
       </c>
@@ -17297,7 +17308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1056</v>
       </c>
@@ -17338,7 +17349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1057</v>
       </c>
@@ -17385,7 +17396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1058</v>
       </c>
@@ -17465,7 +17476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1059</v>
       </c>
@@ -17485,7 +17496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1060</v>
       </c>
@@ -17559,7 +17570,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1068</v>
       </c>
@@ -17618,7 +17629,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1069</v>
       </c>
@@ -17701,7 +17712,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1076</v>
       </c>
@@ -17751,7 +17762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1077</v>
       </c>
@@ -17828,7 +17839,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1092</v>
       </c>
@@ -17911,7 +17922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1099</v>
       </c>
@@ -17994,7 +18005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1100</v>
       </c>
@@ -18050,7 +18061,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1104</v>
       </c>
@@ -18124,7 +18135,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1106</v>
       </c>
@@ -18207,7 +18218,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1107</v>
       </c>
@@ -18236,7 +18247,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1110</v>
       </c>
@@ -18286,7 +18297,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1118</v>
       </c>
@@ -18351,7 +18362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1122</v>
       </c>
@@ -18434,7 +18445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1123</v>
       </c>
@@ -18517,7 +18528,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1130</v>
       </c>
@@ -18600,7 +18611,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1132</v>
       </c>
@@ -18683,7 +18694,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1143</v>
       </c>
@@ -18766,7 +18777,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1147</v>
       </c>
@@ -18849,7 +18860,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1151</v>
       </c>
@@ -18932,7 +18943,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1153</v>
       </c>
@@ -19015,12 +19026,19 @@
         <v>326</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:27" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1156</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA223" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Canada"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Pertussis incidence.xlsx
+++ b/Data/Pertussis incidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_lkg1116_onmicrosoft_com/Documents/XMU/likangguo/2024/06 pertussis/WC_global/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://6kmwxn-my.sharepoint.com/personal/kanggle_lkg1116_onmicrosoft_com/Documents/XMU/likangguo/2024/06 pertussis/PertussisVaccine/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="88" documentId="11_199E324EA6E1A9EB1F2A0D0F8C40F4B9346263A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CCB04A0-540B-4A1A-A9AB-320913266994}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4014,10 +4014,10 @@
   <dimension ref="A1:AA223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A187" sqref="A187"/>
+      <selection pane="bottomRight" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
